--- a/biology/Zoologie/Gobiops/Gobiops.xlsx
+++ b/biology/Zoologie/Gobiops/Gobiops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobiops desertus
 Gobiops est un genre fossile d'amphibiens temnospondyles du Jurassique attesté en Mongolie, en Russie, en Chine. Le genre monotypique n'est représenté que par une seule espèce, l'espèce type Gobiops desertus. 
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été nommé en 1991 à partir de fossiles observés dans des strates de Shar Teeg, datant du Jurassique supérieur, en Mongolie. Du matériel supplémentaire a été décrit en 2005 dans la formation de Toutunhe datant du Jurassique moyen dans le Bassin de Junggar en Chine[1]. Gobiops appartient à la famille des Brachyopidae[2]. Le genre peu connu Ferganobatrachus, nommé en 1990 par Shar Teeg, est probablement synonyme de Gobiops[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé en 1991 à partir de fossiles observés dans des strates de Shar Teeg, datant du Jurassique supérieur, en Mongolie. Du matériel supplémentaire a été décrit en 2005 dans la formation de Toutunhe datant du Jurassique moyen dans le Bassin de Junggar en Chine. Gobiops appartient à la famille des Brachyopidae. Le genre peu connu Ferganobatrachus, nommé en 1990 par Shar Teeg, est probablement synonyme de Gobiops.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Gobiops et l'espèce Gobiops desertus ont été décrits en 1991 par le paléontologue russe Mikhail A. Shishkin (d).
 </t>
